--- a/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,11 +524,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,13 +583,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -595,27 +637,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L2" s="3">
-        <v>21.90935307361503</v>
-      </c>
-      <c r="M2" s="1">
+        <v>20.64400048281337</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2.192741622159442</v>
+      </c>
+      <c r="N2" s="3">
+        <v>19.09349801239444</v>
+      </c>
+      <c r="O2" s="3">
+        <v>22.1945029532323</v>
+      </c>
+      <c r="P2" s="1">
         <v>87</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>43.5</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>50.20458146424487</v>
+      </c>
+      <c r="S2" s="1">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>79</v>
+      </c>
+      <c r="U2">
         <v>2018</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -645,27 +705,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L3" s="3">
-        <v>21.45251346829188</v>
-      </c>
-      <c r="M3" s="1">
+        <v>19.42932575751352</v>
+      </c>
+      <c r="M3" s="3">
+        <v>6.3937578269931</v>
+      </c>
+      <c r="N3" s="3">
+        <v>12.5989877672314</v>
+      </c>
+      <c r="O3" s="3">
+        <v>27.95663219367401</v>
+      </c>
+      <c r="P3" s="1">
         <v>95</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>19</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>33.57826678076163</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>79</v>
+      </c>
+      <c r="U3">
         <v>2018</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>62</v>
@@ -695,27 +773,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L4" s="3">
-        <v>27.77589921308953</v>
-      </c>
-      <c r="M4" s="1">
+        <v>18.30903869114584</v>
+      </c>
+      <c r="M4" s="3">
+        <v>13.08741272121433</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="O4" s="3">
+        <v>45.27801686072104</v>
+      </c>
+      <c r="P4" s="1">
         <v>323</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>14.68181818181818</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>27.46146453909613</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>128</v>
+      </c>
+      <c r="U4">
         <v>2016</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>23</v>
@@ -745,27 +841,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L5" s="3">
-        <v>37.04336315460473</v>
-      </c>
-      <c r="M5" s="1">
+        <v>24.17877060337857</v>
+      </c>
+      <c r="M5" s="3">
+        <v>14.1532578054747</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6.627188424929332</v>
+      </c>
+      <c r="O5" s="3">
+        <v>39.74278801341569</v>
+      </c>
+      <c r="P5" s="1">
         <v>166</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>33.2</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>53.54624169818084</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>128</v>
+      </c>
+      <c r="U5">
         <v>2020</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>41</v>
@@ -795,27 +909,45 @@
         <v>538.4389998789497</v>
       </c>
       <c r="L6" s="3">
-        <v>24.85243295759227</v>
-      </c>
-      <c r="M6" s="1">
+        <v>25.24042809340392</v>
+      </c>
+      <c r="M6" s="3">
+        <v>19.39110965726495</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5.278244028225378</v>
+      </c>
+      <c r="O6" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="P6" s="1">
         <v>79</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>4.9375</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>4.234284670008226</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>15</v>
+      </c>
+      <c r="U6">
         <v>2017</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>71</v>
@@ -845,27 +977,45 @@
         <v>538.4389998789497</v>
       </c>
       <c r="L7" s="3">
-        <v>22.66059629822632</v>
-      </c>
-      <c r="M7" s="1">
+        <v>19.40166161997551</v>
+      </c>
+      <c r="M7" s="3">
+        <v>12.36470609657289</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="O7" s="3">
+        <v>45.27801686072104</v>
+      </c>
+      <c r="P7" s="1">
         <v>90</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>5.294117647058823</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>4.984534906618081</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>19</v>
+      </c>
+      <c r="U7">
         <v>2016</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>37</v>
@@ -895,27 +1045,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L8" s="3">
-        <v>24.83848419950433</v>
-      </c>
-      <c r="M8" s="1">
+        <v>25.80253610921124</v>
+      </c>
+      <c r="M8" s="3">
+        <v>16.18131984753805</v>
+      </c>
+      <c r="N8" s="3">
+        <v>9.386842798111477</v>
+      </c>
+      <c r="O8" s="3">
+        <v>64.34086250369539</v>
+      </c>
+      <c r="P8" s="1">
         <v>158</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>14.36363636363636</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>21.9055825180374</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>79</v>
+      </c>
+      <c r="U8">
         <v>2018</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>24</v>
@@ -945,27 +1113,45 @@
         <v>1135.983432845721</v>
       </c>
       <c r="L9" s="3">
-        <v>22.50301276387648</v>
-      </c>
-      <c r="M9" s="1">
+        <v>17.47554070311507</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8.949553520309768</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O9" s="3">
+        <v>39.17184251192141</v>
+      </c>
+      <c r="P9" s="1">
         <v>94</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>8.545454545454545</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>10.68984224732654</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>30</v>
+      </c>
+      <c r="U9">
         <v>2016</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>44</v>
@@ -995,27 +1181,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L10" s="3">
-        <v>31.92446020123002</v>
-      </c>
-      <c r="M10" s="1">
+        <v>25.23027567471459</v>
+      </c>
+      <c r="M10" s="3">
+        <v>16.04516191724337</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10.98162164796783</v>
+      </c>
+      <c r="O10" s="3">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="P10" s="1">
         <v>228</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>20.72727272727273</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>36.51873740722949</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>128</v>
+      </c>
+      <c r="U10">
         <v>2017</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1045,27 +1249,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L11" s="3">
-        <v>21.02856644875892</v>
-      </c>
-      <c r="M11" s="1">
+        <v>18.05675594648308</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3.591709804875617</v>
+      </c>
+      <c r="N11" s="3">
+        <v>15.74361495951104</v>
+      </c>
+      <c r="O11" s="3">
+        <v>22.1945029532323</v>
+      </c>
+      <c r="P11" s="1">
         <v>98</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>32.66666666666666</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>40.8207463593371</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>79</v>
+      </c>
+      <c r="U11">
         <v>2017</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1095,27 +1317,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L12" s="3">
-        <v>21.02856644875892</v>
-      </c>
-      <c r="M12" s="1">
+        <v>18.05675594648308</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3.591709804875617</v>
+      </c>
+      <c r="N12" s="3">
+        <v>15.74361495951104</v>
+      </c>
+      <c r="O12" s="3">
+        <v>22.1945029532323</v>
+      </c>
+      <c r="P12" s="1">
         <v>98</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>32.66666666666666</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="1">
+        <v>40.8207463593371</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>79</v>
+      </c>
+      <c r="U12">
         <v>2017</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>61</v>
@@ -1145,27 +1385,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L13" s="3">
-        <v>28.57643247462115</v>
-      </c>
-      <c r="M13" s="1">
+        <v>22.38754747701466</v>
+      </c>
+      <c r="M13" s="3">
+        <v>12.91644130090258</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O13" s="3">
+        <v>56.98420985599093</v>
+      </c>
+      <c r="P13" s="1">
         <v>273</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>16.05882352941176</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>29.85688904640622</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>128</v>
+      </c>
+      <c r="U13">
         <v>2017</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>15</v>
@@ -1195,27 +1453,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L14" s="3">
-        <v>19.16882921247149</v>
-      </c>
-      <c r="M14" s="1">
+        <v>33.91111708509359</v>
+      </c>
+      <c r="M14" s="3">
+        <v>28.68268333586156</v>
+      </c>
+      <c r="N14" s="3">
+        <v>12.94150887031128</v>
+      </c>
+      <c r="O14" s="3">
+        <v>66.5973394317372</v>
+      </c>
+      <c r="P14" s="1">
         <v>126</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>42</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>39.15354390090378</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>79</v>
+      </c>
+      <c r="U14">
         <v>2018</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>77</v>
@@ -1245,27 +1521,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L15" s="3">
-        <v>30.9518559327251</v>
-      </c>
-      <c r="M15" s="1">
+        <v>22.69010555993507</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10.50098031613516</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5.258713987810351</v>
+      </c>
+      <c r="O15" s="3">
+        <v>39.74278801341569</v>
+      </c>
+      <c r="P15" s="1">
         <v>268</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>14.88888888888889</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>28.77271765137509</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>128</v>
+      </c>
+      <c r="U15">
         <v>2016</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>64</v>
@@ -1295,27 +1589,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L16" s="3">
-        <v>30.09544761111365</v>
-      </c>
-      <c r="M16" s="1">
+        <v>25.93881637276902</v>
+      </c>
+      <c r="M16" s="3">
+        <v>21.11595031539005</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.087396962410123</v>
+      </c>
+      <c r="O16" s="3">
+        <v>84.0771316599004</v>
+      </c>
+      <c r="P16" s="1">
         <v>331</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>13.79166666666667</v>
       </c>
-      <c r="O16">
+      <c r="R16" s="1">
+        <v>27.68609628561297</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>128</v>
+      </c>
+      <c r="U16">
         <v>2016</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
@@ -1345,27 +1657,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L17" s="3">
-        <v>18.78940113071737</v>
-      </c>
-      <c r="M17" s="1">
+        <v>17.56800591177179</v>
+      </c>
+      <c r="M17" s="3">
+        <v>6.542854862312455</v>
+      </c>
+      <c r="N17" s="3">
+        <v>12.94150887031128</v>
+      </c>
+      <c r="O17" s="3">
+        <v>22.1945029532323</v>
+      </c>
+      <c r="P17" s="1">
         <v>125</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>62.5</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>23.33452377915607</v>
+      </c>
+      <c r="S17" s="1">
+        <v>46</v>
+      </c>
+      <c r="T17" s="1">
+        <v>79</v>
+      </c>
+      <c r="U17">
         <v>2018</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>54</v>
@@ -1395,27 +1725,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L18" s="3">
-        <v>30.65635216359388</v>
-      </c>
-      <c r="M18" s="1">
+        <v>23.69837286756765</v>
+      </c>
+      <c r="M18" s="3">
+        <v>14.79328503216368</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O18" s="3">
+        <v>48.38432860277894</v>
+      </c>
+      <c r="P18" s="1">
         <v>282</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>15.66666666666667</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>29.08810146879345</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>128</v>
+      </c>
+      <c r="U18">
         <v>2017</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1447,25 +1795,43 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="3">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>71</v>
@@ -1495,27 +1861,45 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L20" s="3">
-        <v>23.27683795941807</v>
-      </c>
-      <c r="M20" s="1">
+        <v>18.90658316336147</v>
+      </c>
+      <c r="M20" s="3">
+        <v>12.63307169234104</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O20" s="3">
+        <v>55.2973721582137</v>
+      </c>
+      <c r="P20" s="1">
         <v>419</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>16.11538461538462</v>
       </c>
-      <c r="O20">
+      <c r="R20" s="1">
+        <v>27.17841337985265</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>128</v>
+      </c>
+      <c r="U20">
         <v>2017</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>35</v>
@@ -1545,27 +1929,45 @@
         <v>575.827236940745</v>
       </c>
       <c r="L21" s="3">
-        <v>14.52164198228234</v>
-      </c>
-      <c r="M21" s="1">
+        <v>16.24327655034586</v>
+      </c>
+      <c r="M21" s="3">
+        <v>13.03200485417154</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.087396962410123</v>
+      </c>
+      <c r="O21" s="3">
+        <v>57.66233027029206</v>
+      </c>
+      <c r="P21" s="1">
         <v>107</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>6.294117647058823</v>
       </c>
-      <c r="O21">
+      <c r="R21" s="1">
+        <v>12.13344914833759</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>50</v>
+      </c>
+      <c r="U21">
         <v>2017</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
@@ -1595,18 +1997,36 @@
         <v>538.4389998789497</v>
       </c>
       <c r="L22" s="3">
-        <v>24.5476882057119</v>
-      </c>
-      <c r="M22" s="1">
+        <v>17.88185964142547</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10.90538567613235</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O22" s="3">
+        <v>35.89593332526331</v>
+      </c>
+      <c r="P22" s="1">
         <v>45</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>5</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>4.47213595499958</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>15</v>
+      </c>
+      <c r="U22">
         <v>2018</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2022</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -508,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,14 +542,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -601,13 +621,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -622,60 +657,75 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L2" s="3">
         <v>1906.113717404507</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>953.0568587022536</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>1131.80766455125</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>152.7479840991555</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>20.64400048281337</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>2.192741622159442</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>19.09349801239444</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>22.1945029532323</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>87</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>43.5</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>50.20458146424487</v>
       </c>
-      <c r="S2" s="1">
+      <c r="X2" s="1">
         <v>8</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>79</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2018</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -690,60 +740,75 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G3" s="3">
-        <v>2037.988779487728</v>
+        <v>4685.223515355117</v>
       </c>
       <c r="H3" s="3">
+        <v>1171.305878838779</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1513.463401005405</v>
+      </c>
+      <c r="J3" s="3">
+        <v>203.3209614085382</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2037.988779487729</v>
+      </c>
+      <c r="M3" s="3">
         <v>407.5977558975457</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>752.9936319265861</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>40.66419228170764</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>19.42932575751352</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>6.3937578269931</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>12.5989877672314</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>27.95663219367401</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>95</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>19</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>33.57826678076163</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>79</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2018</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>62</v>
@@ -758,60 +823,75 @@
         <v>0.3548387096774194</v>
       </c>
       <c r="G4" s="3">
+        <v>44668.21149582993</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2233.410574791496</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4669.826278860146</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>21176.91783511972</v>
+      </c>
+      <c r="L4" s="3">
         <v>8971.61544582792</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="3">
         <v>407.8007020830873</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>1065.395454170603</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L4" s="3">
-        <v>18.30903869114584</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="Q4" s="3">
+        <v>18.30903869114585</v>
+      </c>
+      <c r="R4" s="3">
         <v>13.08741272121433</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>45.27801686072104</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>323</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>14.68181818181818</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>27.46146453909613</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>128</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2016</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>23</v>
@@ -826,60 +906,75 @@
         <v>0.2173913043478261</v>
       </c>
       <c r="G5" s="3">
+        <v>5793.543450529515</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1931.181150176505</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2696.19764694338</v>
+      </c>
+      <c r="J5" s="3">
+        <v>203.3209614085382</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L5" s="3">
         <v>6149.198283664386</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>1229.839656732877</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>2169.930045219226</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>6.627188424929332</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>24.17877060337857</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="3">
         <v>14.1532578054747</v>
       </c>
-      <c r="N5" s="3">
+      <c r="S5" s="3">
         <v>6.627188424929332</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>39.74278801341569</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>166</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>33.2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>53.54624169818084</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>128</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2020</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>41</v>
@@ -894,60 +989,75 @@
         <v>0.3902439024390244</v>
       </c>
       <c r="G6" s="3">
-        <v>1963.342203649789</v>
+        <v>11142.9217614901</v>
       </c>
       <c r="H6" s="3">
+        <v>857.1478278069306</v>
+      </c>
+      <c r="I6" s="3">
+        <v>762.0287036244347</v>
+      </c>
+      <c r="J6" s="3">
+        <v>63.33892833870453</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2420.445520432476</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1963.34220364979</v>
+      </c>
+      <c r="M6" s="3">
         <v>122.7088877281118</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>134.9786244833396</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>5.278244028225378</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>538.4389998789497</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
         <v>25.24042809340392</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="3">
         <v>19.39110965726495</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>5.278244028225378</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>70.01644246718027</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>79</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>4.9375</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>4.234284670008226</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>15</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2017</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>71</v>
@@ -962,60 +1072,75 @@
         <v>0.2394366197183098</v>
       </c>
       <c r="G7" s="3">
+        <v>9396.888161248213</v>
+      </c>
+      <c r="H7" s="3">
+        <v>854.2625601134739</v>
+      </c>
+      <c r="I7" s="3">
+        <v>847.4430641318904</v>
+      </c>
+      <c r="J7" s="3">
+        <v>128.9715040670144</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2829.876053795064</v>
+      </c>
+      <c r="L7" s="3">
         <v>2039.453666840368</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="3">
         <v>119.9678627553158</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>157.2645751483118</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>2.022084306600051</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>538.4389998789497</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>19.40166161997551</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>12.36470609657289</v>
       </c>
-      <c r="N7" s="3">
+      <c r="S7" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>45.27801686072104</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>90</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>5.294117647058823</v>
       </c>
-      <c r="R7" s="1">
+      <c r="W7" s="1">
         <v>4.984534906618081</v>
       </c>
-      <c r="S7" s="1">
+      <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>19</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2016</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>37</v>
@@ -1030,60 +1155,75 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="G8" s="3">
+        <v>4808.935961081263</v>
+      </c>
+      <c r="H8" s="3">
+        <v>601.1169951351578</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1165.938996214425</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L8" s="3">
         <v>3924.480503521683</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>356.7709548656076</v>
       </c>
-      <c r="I8" s="3">
-        <v>489.3711670821388</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
+        <v>489.3711670821389</v>
+      </c>
+      <c r="O8" s="3">
         <v>10.98162164796783</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>25.80253610921124</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>16.18131984753805</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>9.386842798111477</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>64.34086250369539</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>158</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>14.36363636363636</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <v>21.9055825180374</v>
       </c>
-      <c r="S8" s="1">
+      <c r="X8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>79</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2018</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>24</v>
@@ -1098,60 +1238,75 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G9" s="3">
+        <v>7027.297082973765</v>
+      </c>
+      <c r="H9" s="3">
+        <v>878.4121353717206</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1175.745185756029</v>
+      </c>
+      <c r="J9" s="3">
+        <v>54.36984812050617</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3611.18314062814</v>
+      </c>
+      <c r="L9" s="3">
         <v>2115.283199804389</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>192.2984727094899</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>337.595798278262</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>1135.983432845721</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>17.47554070311507</v>
       </c>
-      <c r="M9" s="3">
-        <v>8.949553520309768</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
+        <v>8.949553520309767</v>
+      </c>
+      <c r="S9" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>39.17184251192141</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>94</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>8.545454545454545</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <v>10.68984224732654</v>
       </c>
-      <c r="S9" s="1">
+      <c r="X9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>30</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2016</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>44</v>
@@ -1166,60 +1321,75 @@
         <v>0.25</v>
       </c>
       <c r="G10" s="3">
-        <v>7278.776925880444</v>
+        <v>8583.024781981139</v>
       </c>
       <c r="H10" s="3">
-        <v>661.7069932618585</v>
+        <v>1430.50413033019</v>
       </c>
       <c r="I10" s="3">
+        <v>1821.746179999014</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.392243923099459</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7278.776925880443</v>
+      </c>
+      <c r="M10" s="3">
+        <v>661.7069932618584</v>
+      </c>
+      <c r="N10" s="3">
         <v>1479.397583719499</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>10.98162164796783</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>25.23027567471459</v>
       </c>
-      <c r="M10" s="3">
-        <v>16.04516191724337</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
+        <v>16.04516191724338</v>
+      </c>
+      <c r="S10" s="3">
         <v>10.98162164796783</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>53.85819572145232</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>228</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>20.72727272727273</v>
       </c>
-      <c r="R10" s="1">
-        <v>36.51873740722949</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="W10" s="1">
+        <v>36.51873740722948</v>
+      </c>
+      <c r="X10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>128</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2017</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1234,60 +1404,75 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="3">
+        <v>4763.591545034287</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1587.863848344762</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1595.682905637759</v>
+      </c>
+      <c r="J11" s="3">
+        <v>629.7445983804416</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L11" s="3">
         <v>2060.799511978374</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="3">
         <v>686.933170659458</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>931.6109153745095</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>31.48722991902208</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>18.05675594648308</v>
       </c>
-      <c r="M11" s="3">
+      <c r="R11" s="3">
         <v>3.591709804875617</v>
       </c>
-      <c r="N11" s="3">
+      <c r="S11" s="3">
         <v>15.74361495951104</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>22.1945029532323</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>98</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>32.66666666666666</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>40.8207463593371</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>2</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>79</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2017</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1302,60 +1487,75 @@
         <v>0.6</v>
       </c>
       <c r="G12" s="3">
+        <v>4763.591545034287</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1587.863848344762</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1595.682905637759</v>
+      </c>
+      <c r="J12" s="3">
+        <v>629.7445983804416</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L12" s="3">
         <v>2060.799511978374</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="3">
         <v>686.933170659458</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>931.6109153745095</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>31.48722991902208</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>18.05675594648308</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>3.591709804875617</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>15.74361495951104</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>22.1945029532323</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <v>98</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="1">
         <v>32.66666666666666</v>
       </c>
-      <c r="R12" s="1">
+      <c r="W12" s="1">
         <v>40.8207463593371</v>
       </c>
-      <c r="S12" s="1">
+      <c r="X12" s="1">
         <v>2</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <v>79</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>2017</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>61</v>
@@ -1370,60 +1570,75 @@
         <v>0.2786885245901639</v>
       </c>
       <c r="G13" s="3">
-        <v>7801.366065571573</v>
+        <v>12859.55189450188</v>
       </c>
       <c r="H13" s="3">
+        <v>918.5394210358487</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1239.118252570917</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.392243923099459</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7801.366065571572</v>
+      </c>
+      <c r="M13" s="3">
         <v>458.9038862100925</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>1200.333675619392</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3">
         <v>22.38754747701466</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>12.91644130090258</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>56.98420985599093</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>273</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>16.05882352941176</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>29.85688904640622</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>128</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2017</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>15</v>
@@ -1438,60 +1653,75 @@
         <v>0.2</v>
       </c>
       <c r="G14" s="3">
+        <v>6706.881239126662</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2235.627079708887</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1419.685520254287</v>
+      </c>
+      <c r="J14" s="3">
+        <v>665.9733943173719</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L14" s="3">
         <v>2415.272480771408</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>805.0908269238025</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>862.7300194303008</v>
-      </c>
-      <c r="J14" s="3">
-        <v>66.5973394317372</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1753.365733305352</v>
-      </c>
-      <c r="L14" s="3">
-        <v>33.91111708509359</v>
-      </c>
-      <c r="M14" s="3">
-        <v>28.68268333586156</v>
-      </c>
-      <c r="N14" s="3">
-        <v>12.94150887031128</v>
       </c>
       <c r="O14" s="3">
         <v>66.5973394317372</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
+        <v>1753.365733305352</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>33.91111708509359</v>
+      </c>
+      <c r="R14" s="3">
+        <v>28.68268333586156</v>
+      </c>
+      <c r="S14" s="3">
+        <v>12.94150887031128</v>
+      </c>
+      <c r="T14" s="3">
+        <v>66.5973394317372</v>
+      </c>
+      <c r="U14" s="1">
         <v>126</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>42</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <v>39.15354390090378</v>
       </c>
-      <c r="S14" s="1">
+      <c r="X14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>79</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2018</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>77</v>
@@ -1506,60 +1736,75 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="G15" s="3">
-        <v>8295.097389970326</v>
+        <v>21290.944993777</v>
       </c>
       <c r="H15" s="3">
-        <v>460.8387438872403</v>
+        <v>1330.684062111062</v>
       </c>
       <c r="I15" s="3">
+        <v>1608.122734911461</v>
+      </c>
+      <c r="J15" s="3">
+        <v>54.36984812050617</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L15" s="3">
+        <v>8295.097389970328</v>
+      </c>
+      <c r="M15" s="3">
+        <v>460.8387438872404</v>
+      </c>
+      <c r="N15" s="3">
         <v>1164.125099636646</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>5.258713987810351</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>22.69010555993507</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>10.50098031613516</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>5.258713987810351</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>39.74278801341569</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>268</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>14.88888888888889</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>28.77271765137509</v>
       </c>
-      <c r="S15" s="1">
+      <c r="X15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>128</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2016</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>64</v>
@@ -1574,60 +1819,75 @@
         <v>0.375</v>
       </c>
       <c r="G16" s="3">
-        <v>9961.593159278618</v>
+        <v>28482.6561954059</v>
       </c>
       <c r="H16" s="3">
-        <v>415.0663816366091</v>
+        <v>1294.666190700268</v>
       </c>
       <c r="I16" s="3">
+        <v>1460.679724284321</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9961.59315927862</v>
+      </c>
+      <c r="M16" s="3">
+        <v>415.0663816366092</v>
+      </c>
+      <c r="N16" s="3">
         <v>1052.584154026992</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Q16" s="3">
         <v>25.93881637276902</v>
       </c>
-      <c r="M16" s="3">
-        <v>21.11595031539005</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="R16" s="3">
+        <v>21.11595031539006</v>
+      </c>
+      <c r="S16" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>84.0771316599004</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <v>331</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="V16" s="1">
         <v>13.79166666666667</v>
       </c>
-      <c r="R16" s="1">
+      <c r="W16" s="1">
         <v>27.68609628561297</v>
       </c>
-      <c r="S16" s="1">
+      <c r="X16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <v>128</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>2016</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
@@ -1642,60 +1902,75 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G17" s="3">
+        <v>6040.90784480929</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3020.453922404645</v>
+      </c>
+      <c r="I17" s="3">
+        <v>579.0465566296238</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2611.006175589118</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3429.901669220172</v>
+      </c>
+      <c r="L17" s="3">
         <v>2348.675141339671</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>1174.337570669835</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>818.8694805951217</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>595.3094080343188</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>17.56800591177179</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>6.542854862312455</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>12.94150887031128</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>22.1945029532323</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>125</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>62.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <v>23.33452377915607</v>
       </c>
-      <c r="S17" s="1">
+      <c r="X17" s="1">
         <v>46</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>79</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2018</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>54</v>
@@ -1710,60 +1985,75 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18" s="3">
+        <v>41403.11895587759</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2957.365639705542</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5438.578620958389</v>
+      </c>
+      <c r="J18" s="3">
+        <v>258.1751543650643</v>
+      </c>
+      <c r="K18" s="3">
+        <v>21176.91783511972</v>
+      </c>
+      <c r="L18" s="3">
         <v>8645.091310133475</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>480.2828505629709</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>1163.398273955169</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>23.69837286756765</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>14.79328503216368</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>48.38432860277894</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>282</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>15.66666666666667</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>29.08810146879345</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>128</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2017</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1804,34 +2094,49 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>71</v>
@@ -1846,60 +2151,75 @@
         <v>0.3661971830985916</v>
       </c>
       <c r="G20" s="3">
+        <v>29361.87809946296</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1398.184671402998</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1398.856304799021</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5037.956787043533</v>
+      </c>
+      <c r="L20" s="3">
         <v>9752.995104996171</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>375.1151963460066</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>980.436474286025</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>18.90658316336147</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>12.63307169234104</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>55.2973721582137</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <v>419</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="V20" s="1">
         <v>16.11538461538462</v>
       </c>
-      <c r="R20" s="1">
-        <v>27.17841337985265</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="W20" s="1">
+        <v>27.17841337985266</v>
+      </c>
+      <c r="X20" s="1">
         <v>1</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <v>128</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>2017</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>35</v>
@@ -1914,60 +2234,75 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="G21" s="3">
+        <v>15848.08186278348</v>
+      </c>
+      <c r="H21" s="3">
+        <v>990.5051164239674</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1131.357598947921</v>
+      </c>
+      <c r="J21" s="3">
+        <v>52.14912665617487</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3800.513873995446</v>
+      </c>
+      <c r="L21" s="3">
         <v>1553.81569210421</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>91.40092306495355</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>144.4937356066764</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>575.827236940745</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="3">
         <v>16.24327655034586</v>
       </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
         <v>13.03200485417154</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>57.66233027029206</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <v>107</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="V21" s="1">
         <v>6.294117647058823</v>
       </c>
-      <c r="R21" s="1">
+      <c r="W21" s="1">
         <v>12.13344914833759</v>
       </c>
-      <c r="S21" s="1">
+      <c r="X21" s="1">
         <v>1</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <v>50</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>2017</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
@@ -1982,51 +2317,66 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G22" s="3">
+        <v>2680.405276137013</v>
+      </c>
+      <c r="H22" s="3">
+        <v>382.9150394481447</v>
+      </c>
+      <c r="I22" s="3">
+        <v>379.1077594348833</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1088.078154032117</v>
+      </c>
+      <c r="L22" s="3">
         <v>1104.645969257036</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>122.7384410285595</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>166.6307284173943</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>538.4389998789497</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>17.88185964142547</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>10.90538567613235</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>35.89593332526331</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>45</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>5</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>4.47213595499958</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>15</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2018</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2022</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
+++ b/analises/2023/analise_descritiva/dados/sub-mencoes.xlsx
@@ -660,13 +660,13 @@
         <v>3429.901669220172</v>
       </c>
       <c r="H2" s="3">
-        <v>3429.901669220172</v>
+        <v>1714.950834610086</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>2425.306729108642</v>
       </c>
       <c r="J2" s="3">
-        <v>3429.901669220172</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>3429.901669220172</v>
@@ -743,13 +743,13 @@
         <v>4685.223515355117</v>
       </c>
       <c r="H3" s="3">
-        <v>1171.305878838779</v>
+        <v>937.0447030710235</v>
       </c>
       <c r="I3" s="3">
-        <v>1513.463401005405</v>
+        <v>1411.495693226725</v>
       </c>
       <c r="J3" s="3">
-        <v>203.3209614085382</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <v>3429.901669220172</v>
@@ -826,10 +826,10 @@
         <v>44668.21149582993</v>
       </c>
       <c r="H4" s="3">
-        <v>2233.410574791496</v>
+        <v>2030.373249810451</v>
       </c>
       <c r="I4" s="3">
-        <v>4669.826278860146</v>
+        <v>4490.241197221475</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>5793.543450529515</v>
       </c>
       <c r="H5" s="3">
-        <v>1931.181150176505</v>
+        <v>1158.708690105903</v>
       </c>
       <c r="I5" s="3">
-        <v>2696.19764694338</v>
+        <v>2180.270411240455</v>
       </c>
       <c r="J5" s="3">
-        <v>203.3209614085382</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>5037.956787043533</v>
@@ -992,13 +992,13 @@
         <v>11142.9217614901</v>
       </c>
       <c r="H6" s="3">
-        <v>857.1478278069306</v>
+        <v>696.4326100931312</v>
       </c>
       <c r="I6" s="3">
-        <v>762.0287036244347</v>
+        <v>764.1592346553673</v>
       </c>
       <c r="J6" s="3">
-        <v>63.33892833870453</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <v>2420.445520432476</v>
@@ -1075,13 +1075,13 @@
         <v>9396.888161248213</v>
       </c>
       <c r="H7" s="3">
-        <v>854.2625601134739</v>
+        <v>552.7581271322479</v>
       </c>
       <c r="I7" s="3">
-        <v>847.4430641318904</v>
+        <v>791.154255909428</v>
       </c>
       <c r="J7" s="3">
-        <v>128.9715040670144</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>2829.876053795064</v>
@@ -1158,10 +1158,10 @@
         <v>4808.935961081263</v>
       </c>
       <c r="H8" s="3">
-        <v>601.1169951351578</v>
+        <v>437.175996461933</v>
       </c>
       <c r="I8" s="3">
-        <v>1165.938996214425</v>
+        <v>1015.099894801972</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>7027.297082973765</v>
       </c>
       <c r="H9" s="3">
-        <v>878.4121353717206</v>
+        <v>638.8451893612514</v>
       </c>
       <c r="I9" s="3">
-        <v>1175.745185756029</v>
+        <v>1065.839823504247</v>
       </c>
       <c r="J9" s="3">
-        <v>54.36984812050617</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>3611.18314062814</v>
@@ -1324,13 +1324,13 @@
         <v>8583.024781981139</v>
       </c>
       <c r="H10" s="3">
-        <v>1430.50413033019</v>
+        <v>780.2749801801036</v>
       </c>
       <c r="I10" s="3">
-        <v>1821.746179999014</v>
+        <v>1489.118149490151</v>
       </c>
       <c r="J10" s="3">
-        <v>1.392243923099459</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>5037.956787043533</v>
@@ -1573,13 +1573,13 @@
         <v>12859.55189450188</v>
       </c>
       <c r="H13" s="3">
-        <v>918.5394210358487</v>
+        <v>756.444229088346</v>
       </c>
       <c r="I13" s="3">
-        <v>1239.118252570917</v>
+        <v>1173.798697147572</v>
       </c>
       <c r="J13" s="3">
-        <v>1.392243923099459</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>5037.956787043533</v>
@@ -1739,13 +1739,13 @@
         <v>21290.944993777</v>
       </c>
       <c r="H15" s="3">
-        <v>1330.684062111062</v>
+        <v>1182.830277432055</v>
       </c>
       <c r="I15" s="3">
-        <v>1608.122734911461</v>
+        <v>1570.66542202022</v>
       </c>
       <c r="J15" s="3">
-        <v>54.36984812050617</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>5037.956787043533</v>
@@ -1822,10 +1822,10 @@
         <v>28482.6561954059</v>
       </c>
       <c r="H16" s="3">
-        <v>1294.666190700268</v>
+        <v>1186.777341475246</v>
       </c>
       <c r="I16" s="3">
-        <v>1460.679724284321</v>
+        <v>1442.796972601963</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>41403.11895587759</v>
       </c>
       <c r="H18" s="3">
-        <v>2957.365639705542</v>
+        <v>2300.173275326533</v>
       </c>
       <c r="I18" s="3">
-        <v>5438.578620958389</v>
+        <v>4921.295860260982</v>
       </c>
       <c r="J18" s="3">
-        <v>258.1751543650643</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>21176.91783511972</v>
@@ -2154,10 +2154,10 @@
         <v>29361.87809946296</v>
       </c>
       <c r="H20" s="3">
-        <v>1398.184671402998</v>
+        <v>1129.303003825498</v>
       </c>
       <c r="I20" s="3">
-        <v>1398.856304799021</v>
+        <v>1371.580839412833</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2237,13 +2237,13 @@
         <v>15848.08186278348</v>
       </c>
       <c r="H21" s="3">
-        <v>990.5051164239674</v>
+        <v>932.2401095754986</v>
       </c>
       <c r="I21" s="3">
-        <v>1131.357598947921</v>
+        <v>1121.464969602491</v>
       </c>
       <c r="J21" s="3">
-        <v>52.14912665617487</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>3800.513873995446</v>
@@ -2320,10 +2320,10 @@
         <v>2680.405276137013</v>
       </c>
       <c r="H22" s="3">
-        <v>382.9150394481447</v>
+        <v>297.8228084596681</v>
       </c>
       <c r="I22" s="3">
-        <v>379.1077594348833</v>
+        <v>369.1913163392061</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
